--- a/1 семестр Расписание 3 курса.xlsx
+++ b/1 семестр Расписание 3 курса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="156">
   <si>
     <t>День недели</t>
   </si>
@@ -99,6 +99,9 @@
     <t>Четверг</t>
   </si>
   <si>
+    <t>319 лек. Основы конструкторской деятельности Бикмухаметова В.В.</t>
+  </si>
+  <si>
     <t>319 лек. Летательные аппараты Мустафин Г.О.</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
   </si>
   <si>
     <t>** 304 Технологическая подготовка производства Нигматуллина М.И.</t>
+  </si>
+  <si>
+    <t>306 лек. Основы конструкторской деятельности Бикмухаметова В.В.</t>
   </si>
   <si>
     <t>234 лек. Доводка двигателя и его узлов Дикова Ф.а.</t>
@@ -262,10 +268,25 @@
     <t>7-301 лек. Методы эксплуатации контрольно-измерительного оборудования и технологического оснащения сборки и монтажа вагапова Н.Р.</t>
   </si>
   <si>
+    <t>7-301 лек. Методы эксплуатации контрольно-измерительного оборудования и технологического оснащения сборки и монтажа Вагапова Н.Р.</t>
+  </si>
+  <si>
     <t>319 лек. Теоретические основы ремонта различных видов радиоэлектронной техники Осипова А.В.</t>
   </si>
   <si>
     <t>207 лек. Методы настройки и регулировки устройств и блоков радиоэлектронных приборов Семенова О.Л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пз. Физическая культура Кияев С.А. </t>
+  </si>
+  <si>
+    <t>7-404 Вычислительная техника Вагапова Н.Р.</t>
+  </si>
+  <si>
+    <t>318 пз. Иностранный язык Кузьмина Л.С.</t>
+  </si>
+  <si>
+    <t>7-404 Методы проведения стандартных и сертифицированных испытаний Окин В.З.</t>
   </si>
   <si>
     <t xml:space="preserve"> лек. Теоретические основы ремонта различных видов радиоэлектронной техники Осипова А.В.</t>
@@ -331,6 +352,12 @@
     <t xml:space="preserve">230 пз. Компьютерная графика Лаврова Л.Ф. </t>
   </si>
   <si>
+    <t>230 пз. Компьютерная графика Лаврова Л.Ф.</t>
+  </si>
+  <si>
+    <t>301 пз. Иностранный язык в профессиональной деятельности Кузьмина Л.С.</t>
+  </si>
+  <si>
     <t>210 лек. Математика в профессиональной деятельности Валеева Л.Б.</t>
   </si>
   <si>
@@ -368,6 +395,12 @@
   </si>
   <si>
     <t>115 лек. Безопасность жизнедеятельности Злобин В.С.</t>
+  </si>
+  <si>
+    <t>**301 пз. Технологические процессы изготовления деталей машин Асланян А.В.</t>
+  </si>
+  <si>
+    <t>**111 лек. Технологические процессы изготовления деталей машин Асланян А.В.</t>
   </si>
   <si>
     <t>321 лек. Электротехника и электроника Окин В.З.</t>
@@ -416,6 +449,9 @@
   </si>
   <si>
     <t>325 пз. Иностранный язык в профессиональной деятельности Батыргареева С.С.</t>
+  </si>
+  <si>
+    <t>304 лек. Внедрение и поддержка компьютерных систем Аслаева Ф.Р.</t>
   </si>
   <si>
     <t>305пз. Иностранный язык в профессиональной деятельности Батыргареева С.С.</t>
@@ -485,6 +521,9 @@
   </si>
   <si>
     <t>321 лек. Устройство и функционирование информационной системы Будилов В.В.</t>
+  </si>
+  <si>
+    <t>304 лек. Устройство и функционирование информационной системы Будилов В.В.</t>
   </si>
   <si>
     <t>311 лек. Обработка отраслевой информации Карпова Н.Е.</t>
@@ -730,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -860,6 +899,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2755,7 +2797,9 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2772,7 +2816,9 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="V24" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -2789,7 +2835,9 @@
       <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
       <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
+      <c r="AM24" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
@@ -2815,9 +2863,11 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2834,9 +2884,11 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -2853,9 +2905,11 @@
       <c r="AJ25" s="11"/>
       <c r="AK25" s="11"/>
       <c r="AL25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
@@ -2881,9 +2935,11 @@
         <v>6.0</v>
       </c>
       <c r="D26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2900,9 +2956,11 @@
       <c r="S26" s="11"/>
       <c r="T26" s="9"/>
       <c r="U26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -2919,9 +2977,11 @@
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
@@ -2940,7 +3000,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>8</v>
@@ -3069,7 +3129,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -3088,7 +3148,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -3107,7 +3167,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
@@ -3135,7 +3195,7 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -3154,7 +3214,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -3173,7 +3233,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
@@ -3201,7 +3261,7 @@
         <v>5.0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -3220,7 +3280,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -3239,7 +3299,7 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="11"/>
       <c r="AL31" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM31" s="11"/>
       <c r="AN31" s="11"/>
@@ -3267,7 +3327,7 @@
         <v>6.0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
@@ -3286,7 +3346,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -3305,7 +3365,7 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
@@ -3326,7 +3386,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -3449,13 +3509,13 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="11"/>
@@ -3474,7 +3534,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -3493,7 +3553,7 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
@@ -3515,13 +3575,13 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -3540,7 +3600,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -3559,7 +3619,7 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
@@ -3581,13 +3641,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -3606,7 +3666,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -3625,7 +3685,7 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
@@ -3647,13 +3707,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3672,7 +3732,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -3691,7 +3751,7 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
@@ -3756,7 +3816,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="E1" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -3770,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -3963,7 +4023,7 @@
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -3990,10 +4050,10 @@
         <v>6.0</v>
       </c>
       <c r="D9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -4131,7 +4191,7 @@
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -4159,7 +4219,7 @@
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -4240,7 +4300,7 @@
         <v>3.0</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -4268,10 +4328,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -4299,7 +4359,7 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -4327,7 +4387,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -4356,7 +4416,9 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="40"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -4382,7 +4444,9 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -4408,9 +4472,11 @@
         <v>3.0</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -4436,7 +4502,7 @@
         <v>4.0</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -4509,7 +4575,7 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>8</v>
@@ -4518,7 +4584,7 @@
         <v>1.0</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -4546,7 +4612,7 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -4574,7 +4640,7 @@
         <v>3.0</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -4602,7 +4668,7 @@
         <v>4.0</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -4675,7 +4741,7 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>8</v>
@@ -4730,13 +4796,13 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="32">
         <v>3.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -4758,13 +4824,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="32">
         <v>4.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -4786,13 +4852,13 @@
     <row r="38">
       <c r="A38" s="14"/>
       <c r="B38" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="32">
         <v>5.0</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -4814,13 +4880,13 @@
     <row r="39">
       <c r="A39" s="21"/>
       <c r="B39" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="32">
         <v>6.0</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="43"/>
@@ -4895,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4914,7 +4980,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -4933,7 +4999,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -4952,7 +5018,7 @@
       <c r="BA1" s="3"/>
       <c r="BB1" s="4"/>
       <c r="BC1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
@@ -5194,7 +5260,7 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -5273,7 +5339,7 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -5369,7 +5435,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -5448,7 +5514,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -5484,7 +5550,7 @@
       <c r="BB6" s="17"/>
       <c r="BC6" s="15"/>
       <c r="BD6" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BE6" s="15"/>
       <c r="BF6" s="15"/>
@@ -5511,7 +5577,7 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -5530,7 +5596,7 @@
       <c r="S7" s="12"/>
       <c r="T7" s="16"/>
       <c r="U7" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -5549,10 +5615,10 @@
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AN7" s="16"/>
       <c r="AO7" s="16"/>
@@ -5570,10 +5636,10 @@
       <c r="BA7" s="16"/>
       <c r="BB7" s="20"/>
       <c r="BC7" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BD7" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BE7" s="16"/>
       <c r="BF7" s="16"/>
@@ -5635,7 +5701,7 @@
       <c r="AK8" s="16"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AN8" s="16"/>
       <c r="AO8" s="16"/>
@@ -5716,7 +5782,7 @@
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -5795,7 +5861,7 @@
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
@@ -5839,7 +5905,7 @@
         <v>3.0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5858,10 +5924,10 @@
       <c r="S11" s="12"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -5879,7 +5945,7 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -5898,7 +5964,7 @@
       <c r="BA11" s="11"/>
       <c r="BB11" s="13"/>
       <c r="BC11" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BD11" s="11"/>
       <c r="BE11" s="11"/>
@@ -5926,7 +5992,7 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5945,10 +6011,10 @@
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -5966,7 +6032,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -5985,7 +6051,7 @@
       <c r="BA12" s="11"/>
       <c r="BB12" s="13"/>
       <c r="BC12" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BD12" s="11"/>
       <c r="BE12" s="11"/>
@@ -6014,7 +6080,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -6093,7 +6159,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6173,7 +6239,7 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -6192,7 +6258,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="9"/>
       <c r="U15" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -6211,7 +6277,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -6230,7 +6296,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="22"/>
       <c r="BC15" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
@@ -6258,7 +6324,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -6277,7 +6343,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -6296,7 +6362,7 @@
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
@@ -6315,7 +6381,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="22"/>
       <c r="BC16" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BD16" s="9"/>
       <c r="BE16" s="9"/>
@@ -6394,7 +6460,9 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="22"/>
       <c r="BC17" s="11"/>
-      <c r="BD17" s="9"/>
+      <c r="BD17" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
       <c r="BG17" s="9"/>
@@ -6471,7 +6539,9 @@
       <c r="BA18" s="11"/>
       <c r="BB18" s="13"/>
       <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
+      <c r="BD18" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11"/>
       <c r="BG18" s="11"/>
@@ -6498,7 +6568,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
@@ -6517,7 +6587,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -6536,7 +6606,7 @@
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
@@ -6554,9 +6624,7 @@
       <c r="BA19" s="11"/>
       <c r="BB19" s="13"/>
       <c r="BC19" s="11"/>
-      <c r="BD19" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="BD19" s="15"/>
       <c r="BE19" s="11"/>
       <c r="BF19" s="11"/>
       <c r="BG19" s="11"/>
@@ -6583,7 +6651,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -6602,7 +6670,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -6621,7 +6689,7 @@
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
@@ -6639,9 +6707,7 @@
       <c r="BA20" s="11"/>
       <c r="BB20" s="13"/>
       <c r="BC20" s="11"/>
-      <c r="BD20" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="BD20" s="15"/>
       <c r="BE20" s="11"/>
       <c r="BF20" s="11"/>
       <c r="BG20" s="11"/>
@@ -6823,7 +6889,7 @@
         <v>3.0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
@@ -6842,7 +6908,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
@@ -6861,7 +6927,7 @@
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
@@ -6880,9 +6946,11 @@
       <c r="BA23" s="11"/>
       <c r="BB23" s="13"/>
       <c r="BC23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD23" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="BD23" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="BE23" s="11"/>
       <c r="BF23" s="11"/>
       <c r="BG23" s="11"/>
@@ -6908,9 +6976,11 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -6927,9 +6997,11 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="V24" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -6946,9 +7018,11 @@
       <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
       <c r="AL24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM24" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="AM24" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
@@ -6965,9 +7039,11 @@
       <c r="BA24" s="11"/>
       <c r="BB24" s="13"/>
       <c r="BC24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD24" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="BD24" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
@@ -6993,7 +7069,9 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -7010,7 +7088,9 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="V25" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -7027,7 +7107,9 @@
       <c r="AJ25" s="11"/>
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
+      <c r="AM25" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
@@ -7044,7 +7126,9 @@
       <c r="BA25" s="11"/>
       <c r="BB25" s="13"/>
       <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
+      <c r="BD25" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="BE25" s="11"/>
       <c r="BF25" s="11"/>
       <c r="BG25" s="11"/>
@@ -7070,7 +7154,9 @@
         <v>6.0</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -7087,7 +7173,9 @@
       <c r="S26" s="11"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
+      <c r="V26" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -7104,7 +7192,9 @@
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
+      <c r="AM26" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
@@ -7140,7 +7230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>8</v>
@@ -7149,7 +7239,7 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="12"/>
@@ -7168,7 +7258,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="9"/>
       <c r="U27" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -7187,7 +7277,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
@@ -7206,7 +7296,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="22"/>
       <c r="BC27" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BD27" s="9"/>
       <c r="BE27" s="9"/>
@@ -7234,7 +7324,7 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="12"/>
@@ -7253,7 +7343,7 @@
       <c r="S28" s="15"/>
       <c r="T28" s="9"/>
       <c r="U28" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -7272,7 +7362,7 @@
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
@@ -7291,7 +7381,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="22"/>
       <c r="BC28" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BD28" s="9"/>
       <c r="BE28" s="9"/>
@@ -7319,7 +7409,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -7338,7 +7428,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -7357,7 +7447,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
@@ -7376,7 +7466,7 @@
       <c r="BA29" s="15"/>
       <c r="BB29" s="17"/>
       <c r="BC29" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD29" s="15"/>
       <c r="BE29" s="15"/>
@@ -7404,7 +7494,7 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -7423,7 +7513,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -7442,7 +7532,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
@@ -7461,7 +7551,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="17"/>
       <c r="BC30" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD30" s="15"/>
       <c r="BE30" s="15"/>
@@ -7636,7 +7726,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -7696,7 +7786,7 @@
       <c r="BA33" s="11"/>
       <c r="BB33" s="13"/>
       <c r="BC33" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BD33" s="11"/>
       <c r="BE33" s="11"/>
@@ -7775,7 +7865,7 @@
       <c r="BA34" s="11"/>
       <c r="BB34" s="13"/>
       <c r="BC34" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BD34" s="11"/>
       <c r="BE34" s="11"/>
@@ -7797,13 +7887,13 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="11"/>
@@ -7822,7 +7912,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -7841,7 +7931,7 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
@@ -7860,7 +7950,7 @@
       <c r="BA35" s="11"/>
       <c r="BB35" s="13"/>
       <c r="BC35" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BD35" s="11"/>
       <c r="BE35" s="11"/>
@@ -7882,13 +7972,13 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -7907,7 +7997,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -7926,7 +8016,7 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
@@ -7945,7 +8035,7 @@
       <c r="BA36" s="11"/>
       <c r="BB36" s="13"/>
       <c r="BC36" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BD36" s="11"/>
       <c r="BE36" s="11"/>
@@ -7967,13 +8057,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -7992,7 +8082,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -8011,7 +8101,7 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
@@ -8050,13 +8140,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -8075,7 +8165,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -8094,7 +8184,7 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
@@ -8186,7 +8276,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8205,7 +8295,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -8224,7 +8314,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -8509,7 +8599,7 @@
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
       <c r="AM4" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AN4" s="11"/>
       <c r="AO4" s="11"/>
@@ -8537,7 +8627,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -8556,7 +8646,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -8575,7 +8665,7 @@
       <c r="AK5" s="11"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
@@ -8603,7 +8693,7 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -8622,7 +8712,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -8641,7 +8731,7 @@
       <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
       <c r="AM6" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AN6" s="15"/>
       <c r="AO6" s="15"/>
@@ -8668,10 +8758,10 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -8689,10 +8779,10 @@
       <c r="S7" s="12"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -8710,7 +8800,7 @@
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="23" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AM7" s="16"/>
       <c r="AN7" s="16"/>
@@ -8834,7 +8924,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
@@ -8896,7 +8986,7 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -8924,7 +9014,7 @@
         <v>3.0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -8943,7 +9033,7 @@
       <c r="S11" s="12"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -8963,7 +9053,7 @@
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -8990,7 +9080,7 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -9009,7 +9099,7 @@
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
@@ -9029,7 +9119,7 @@
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
@@ -9057,7 +9147,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -9076,7 +9166,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -9121,7 +9211,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -9140,7 +9230,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -9221,7 +9311,7 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
@@ -9248,7 +9338,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -9267,7 +9357,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -9287,7 +9377,7 @@
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
@@ -9314,10 +9404,10 @@
         <v>3.0</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -9335,10 +9425,10 @@
       <c r="S17" s="11"/>
       <c r="T17" s="9"/>
       <c r="U17" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -9357,7 +9447,7 @@
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
@@ -9385,7 +9475,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -9404,7 +9494,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -9422,10 +9512,10 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -9453,7 +9543,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
@@ -9472,7 +9562,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -9490,7 +9580,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
       <c r="AL19" s="11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -9519,7 +9609,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -9538,7 +9628,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -9584,7 +9674,9 @@
         <v>1.0</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -9644,7 +9736,9 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -9661,7 +9755,9 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
+      <c r="V22" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
@@ -9704,7 +9800,9 @@
         <v>3.0</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -9721,7 +9819,9 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="V23" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
@@ -9738,7 +9838,7 @@
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
@@ -9783,7 +9883,9 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="V24" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -9800,9 +9902,11 @@
       <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
       <c r="AL24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM24" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="AM24" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
@@ -9828,7 +9932,7 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -9847,7 +9951,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
@@ -9866,7 +9970,9 @@
       <c r="AJ25" s="11"/>
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
+      <c r="AM25" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
@@ -9892,7 +9998,7 @@
         <v>6.0</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -9911,7 +10017,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="9"/>
       <c r="U26" s="23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -9930,7 +10036,9 @@
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
+      <c r="AM26" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
@@ -9949,7 +10057,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>8</v>
@@ -10078,7 +10186,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -10097,7 +10205,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -10116,7 +10224,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
@@ -10144,7 +10252,7 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -10163,7 +10271,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -10182,7 +10290,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
@@ -10210,7 +10318,7 @@
         <v>5.0</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -10229,7 +10337,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="11"/>
       <c r="U31" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -10248,7 +10356,7 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="11"/>
       <c r="AL31" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AM31" s="11"/>
       <c r="AN31" s="11"/>
@@ -10276,7 +10384,7 @@
         <v>6.0</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
@@ -10295,7 +10403,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -10314,7 +10422,7 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
@@ -10335,7 +10443,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -10458,13 +10566,13 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="11"/>
@@ -10483,7 +10591,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -10502,7 +10610,7 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
@@ -10524,13 +10632,13 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -10549,7 +10657,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -10568,7 +10676,7 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
@@ -10590,13 +10698,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -10615,7 +10723,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -10634,7 +10742,7 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
@@ -10656,13 +10764,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -10681,7 +10789,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -10700,7 +10808,7 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
@@ -10772,7 +10880,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -10791,7 +10899,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -11102,10 +11210,10 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -11123,10 +11231,10 @@
       <c r="S7" s="12"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -11154,7 +11262,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -11173,7 +11281,7 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -11331,10 +11439,10 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -11352,10 +11460,10 @@
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -11382,10 +11490,10 @@
         <v>5.0</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -11403,10 +11511,10 @@
       <c r="S13" s="12"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -11478,7 +11586,7 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -11497,7 +11605,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="9"/>
       <c r="U15" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -11525,7 +11633,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -11544,7 +11652,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -11573,7 +11681,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -11592,7 +11700,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -11620,7 +11728,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -11639,7 +11747,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -11667,7 +11775,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
@@ -11686,7 +11794,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -11714,7 +11822,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -11733,7 +11841,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -11805,7 +11913,9 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -11848,7 +11958,9 @@
         <v>3.0</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -11865,7 +11977,9 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="V23" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
@@ -11891,9 +12005,11 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -11910,9 +12026,11 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V24" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -11938,7 +12056,7 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -11957,9 +12075,11 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V25" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -12021,7 +12141,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>8</v>
@@ -12116,7 +12236,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -12135,7 +12255,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -12163,7 +12283,7 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -12182,7 +12302,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -12210,7 +12330,7 @@
         <v>5.0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -12229,7 +12349,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -12257,7 +12377,7 @@
         <v>6.0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
@@ -12276,7 +12396,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -12297,7 +12417,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -12388,13 +12508,13 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="11"/>
@@ -12413,7 +12533,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -12435,13 +12555,13 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -12460,7 +12580,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -12482,13 +12602,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -12507,7 +12627,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -12529,13 +12649,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -12554,7 +12674,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -12626,7 +12746,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -12645,7 +12765,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -12871,7 +12991,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -12890,7 +13010,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -12918,7 +13038,7 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="11" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -12937,7 +13057,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="11" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -12964,7 +13084,7 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -12983,7 +13103,7 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -13142,7 +13262,7 @@
         <v>3.0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -13161,7 +13281,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -13189,10 +13309,10 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -13210,10 +13330,10 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -13241,7 +13361,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -13260,7 +13380,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -13288,7 +13408,7 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="23" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -13307,7 +13427,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="23" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -13422,10 +13542,10 @@
         <v>3.0</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -13443,10 +13563,10 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="11" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -13473,10 +13593,10 @@
         <v>4.0</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -13494,10 +13614,10 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -13698,7 +13818,9 @@
         <v>3.0</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -13715,7 +13837,9 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="V23" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
@@ -13741,9 +13865,11 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -13760,9 +13886,11 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="V24" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -13867,7 +13995,7 @@
     </row>
     <row r="27">
       <c r="A27" s="47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>8</v>
@@ -13962,7 +14090,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -13981,7 +14109,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -14009,7 +14137,7 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -14028,7 +14156,7 @@
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -14135,10 +14263,10 @@
     </row>
     <row r="33">
       <c r="A33" s="47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C33" s="48">
         <v>1.0</v>
@@ -14181,7 +14309,7 @@
     <row r="34">
       <c r="A34" s="14"/>
       <c r="B34" s="51" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C34" s="48">
         <v>2.0</v>
@@ -14224,7 +14352,7 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="51" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C35" s="48">
         <v>3.0</v>
@@ -14267,7 +14395,7 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="51" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C36" s="48">
         <v>4.0</v>
@@ -14310,13 +14438,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="51" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C37" s="48">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -14335,7 +14463,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -14357,13 +14485,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="51" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C38" s="48">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -14382,7 +14510,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -14461,7 +14589,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -14480,7 +14608,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -14499,7 +14627,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -14518,7 +14646,7 @@
       <c r="BA1" s="3"/>
       <c r="BB1" s="4"/>
       <c r="BC1" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
@@ -14991,7 +15119,7 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="23" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -15010,7 +15138,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="23" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -15071,10 +15199,10 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -15092,10 +15220,10 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -15113,10 +15241,10 @@
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="23" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AM7" s="23" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AN7" s="16"/>
       <c r="AO7" s="16"/>
@@ -15134,10 +15262,10 @@
       <c r="BA7" s="16"/>
       <c r="BB7" s="16"/>
       <c r="BC7" s="23" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="BD7" s="23" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="BE7" s="16"/>
       <c r="BF7" s="16"/>
@@ -15199,7 +15327,7 @@
       <c r="AK8" s="16"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AN8" s="16"/>
       <c r="AO8" s="16"/>
@@ -15218,7 +15346,7 @@
       <c r="BB8" s="16"/>
       <c r="BC8" s="16"/>
       <c r="BD8" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="BE8" s="16"/>
       <c r="BF8" s="16"/>
@@ -15341,7 +15469,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -15359,10 +15487,10 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
@@ -15380,7 +15508,7 @@
       <c r="BA10" s="11"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="11" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="BD10" s="11"/>
       <c r="BE10" s="11"/>
@@ -15409,7 +15537,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -15444,10 +15572,10 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -15465,7 +15593,7 @@
       <c r="BA11" s="11"/>
       <c r="BB11" s="11"/>
       <c r="BC11" s="11" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="BD11" s="11"/>
       <c r="BE11" s="11"/>
@@ -15494,7 +15622,7 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15546,7 +15674,7 @@
       <c r="BB12" s="11"/>
       <c r="BC12" s="11"/>
       <c r="BD12" s="11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BE12" s="11"/>
       <c r="BF12" s="11"/>
@@ -15573,7 +15701,7 @@
         <v>5.0</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -15592,7 +15720,7 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -15629,7 +15757,7 @@
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
       <c r="BD13" s="11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="BE13" s="11"/>
       <c r="BF13" s="11"/>
@@ -15656,7 +15784,7 @@
         <v>6.0</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -15675,7 +15803,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -15739,7 +15867,7 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -15835,10 +15963,10 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -15917,7 +16045,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -15979,7 +16107,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -16015,7 +16143,7 @@
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -16034,7 +16162,7 @@
       <c r="BB18" s="11"/>
       <c r="BC18" s="11"/>
       <c r="BD18" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11"/>
@@ -16062,7 +16190,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -16098,7 +16226,7 @@
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
@@ -16116,10 +16244,10 @@
       <c r="BA19" s="11"/>
       <c r="BB19" s="11"/>
       <c r="BC19" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="BD19" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="BE19" s="11"/>
       <c r="BF19" s="11"/>
@@ -16180,10 +16308,10 @@
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
@@ -16202,7 +16330,7 @@
       <c r="BB20" s="11"/>
       <c r="BC20" s="11"/>
       <c r="BD20" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="BE20" s="11"/>
       <c r="BF20" s="11"/>
@@ -16342,7 +16470,9 @@
       <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
+      <c r="AM22" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
@@ -16417,7 +16547,9 @@
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
+      <c r="AM23" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
@@ -16460,7 +16592,9 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -16477,7 +16611,9 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="V24" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -16511,7 +16647,9 @@
       <c r="BA24" s="11"/>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
+      <c r="BD24" s="52" t="s">
+        <v>147</v>
+      </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
@@ -16537,9 +16675,11 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -16556,9 +16696,11 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V25" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -16592,7 +16734,9 @@
       <c r="BA25" s="11"/>
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
+      <c r="BD25" s="52" t="s">
+        <v>148</v>
+      </c>
       <c r="BE25" s="11"/>
       <c r="BF25" s="11"/>
       <c r="BG25" s="11"/>
@@ -16618,7 +16762,9 @@
         <v>6.0</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -16635,7 +16781,9 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
+      <c r="V26" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -16652,7 +16800,7 @@
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="11" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
@@ -16671,7 +16819,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
       <c r="BC26" s="11" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="BD26" s="9"/>
       <c r="BE26" s="9"/>
@@ -16692,7 +16840,7 @@
     </row>
     <row r="27">
       <c r="A27" s="47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>8</v>
@@ -16701,7 +16849,7 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -16720,7 +16868,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -16782,7 +16930,7 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -16801,7 +16949,7 @@
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -16863,7 +17011,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -16882,7 +17030,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -16978,7 +17126,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
@@ -16997,7 +17145,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
       <c r="BC30" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="BD30" s="15"/>
       <c r="BE30" s="15"/>
@@ -17059,7 +17207,7 @@
       <c r="AJ31" s="50"/>
       <c r="AK31" s="50"/>
       <c r="AL31" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AM31" s="50"/>
       <c r="AN31" s="50"/>
@@ -17078,7 +17226,7 @@
       <c r="BA31" s="50"/>
       <c r="BB31" s="50"/>
       <c r="BC31" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="BD31" s="11"/>
       <c r="BE31" s="11"/>
@@ -17140,7 +17288,7 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
@@ -17159,7 +17307,7 @@
       <c r="BA32" s="11"/>
       <c r="BB32" s="11"/>
       <c r="BC32" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="BD32" s="11"/>
       <c r="BE32" s="11"/>
@@ -17180,10 +17328,10 @@
     </row>
     <row r="33">
       <c r="A33" s="47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C33" s="48">
         <v>1.0</v>
@@ -17260,7 +17408,7 @@
     <row r="34">
       <c r="A34" s="14"/>
       <c r="B34" s="51" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C34" s="48">
         <v>2.0</v>
@@ -17337,7 +17485,7 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="51" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C35" s="48">
         <v>3.0</v>
@@ -17377,7 +17525,7 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AM35" s="11"/>
       <c r="AN35" s="11"/>
@@ -17396,7 +17544,7 @@
       <c r="BA35" s="11"/>
       <c r="BB35" s="11"/>
       <c r="BC35" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="BD35" s="11"/>
       <c r="BE35" s="11"/>
@@ -17418,13 +17566,13 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="51" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C36" s="48">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -17443,7 +17591,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -17462,7 +17610,7 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
@@ -17481,7 +17629,7 @@
       <c r="BA36" s="11"/>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="BD36" s="11"/>
       <c r="BE36" s="11"/>
@@ -17503,13 +17651,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="51" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C37" s="48">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -17528,7 +17676,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -17547,7 +17695,7 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="11" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
@@ -17566,7 +17714,7 @@
       <c r="BA37" s="16"/>
       <c r="BB37" s="16"/>
       <c r="BC37" s="11" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="BD37" s="16"/>
       <c r="BE37" s="16"/>
@@ -17588,13 +17736,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="51" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C38" s="48">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -17613,7 +17761,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -17632,7 +17780,7 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="11" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
@@ -17651,7 +17799,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
       <c r="BC38" s="11" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="BD38" s="9"/>
       <c r="BE38" s="9"/>

--- a/1 семестр Расписание 3 курса.xlsx
+++ b/1 семестр Расписание 3 курса.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="180">
   <si>
     <t>День недели</t>
   </si>
@@ -108,6 +108,9 @@
     <t>Пятница</t>
   </si>
   <si>
+    <t>** 304 пз. Основы конструкторской деятельности Бикмухаметова В.В.</t>
+  </si>
+  <si>
     <t>лек. Информатика Миронюк Е.Ю.</t>
   </si>
   <si>
@@ -117,16 +120,22 @@
     <t>Суббота</t>
   </si>
   <si>
+    <t>лек. Гидравлика Бикмухаметова В.В.</t>
+  </si>
+  <si>
+    <t>лек. Основы конструкторской деятельности Бикмухаметова В.В.</t>
+  </si>
+  <si>
     <t>11:30-13:00</t>
+  </si>
+  <si>
+    <t>лек. Летательные аппараты Мустафин Г.О.</t>
   </si>
   <si>
     <t>13:10-14:40</t>
   </si>
   <si>
     <t>14:50-16:20</t>
-  </si>
-  <si>
-    <t>лек. Основы конструкторской деятельности Бикмухаметова В.В.</t>
   </si>
   <si>
     <t>16:30-18:00</t>
@@ -173,7 +182,10 @@
     <t>305 лек. Технологическая подготовка производства Нигматуллина М.И.</t>
   </si>
   <si>
-    <t>** 304 Технологическая подготовка производства Нигматуллина М.И.</t>
+    <t>** 304 лек. Технологическая подготовка производства Нигматуллина М.И.</t>
+  </si>
+  <si>
+    <t>** 304 пз. Технологическая подготовка производства Нигматуллина М.И.</t>
   </si>
   <si>
     <t>306 лек. Основы конструкторской деятельности Бикмухаметова В.В.</t>
@@ -183,6 +195,9 @@
   </si>
   <si>
     <t>лек. Доводка двигателя и его узлов Дикова Ф.А.</t>
+  </si>
+  <si>
+    <t>** 301 лек. Конструкция двигателей Дикова Ф.А.</t>
   </si>
   <si>
     <r>
@@ -201,6 +216,9 @@
     </r>
   </si>
   <si>
+    <t>** 301 пз. Конструкция двигателей Дикова Ф.А.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Times New Roman"/>
@@ -215,6 +233,12 @@
       </rPr>
       <t>Компьютерное моделирование Мустафин Г.О.</t>
     </r>
+  </si>
+  <si>
+    <t>лек. Конструкция двигателей Дикова Ф.А.</t>
+  </si>
+  <si>
+    <t>лек. Доводка двигателя и его узлов Дикова  Ф.А.</t>
   </si>
   <si>
     <t>лек. Технологическая подготовка производства Нигматуллина М.И.</t>
@@ -295,10 +319,19 @@
     <t xml:space="preserve"> лек. Методы настройки и регулировки устройств и блоков радиоэлектронных приборов Семенова О.Л. </t>
   </si>
   <si>
+    <t>225 пз. Методы проведения стандартных и сертифицированных испытаний Окин В.З.</t>
+  </si>
+  <si>
+    <t>лек. Вычислительная техника Вагапова Н.Р.</t>
+  </si>
+  <si>
     <t>лек. Методы проведения стандартных и сертифицированных испытаний Окин В.З.</t>
   </si>
   <si>
-    <t>лек. Вычислительная техника Вагапова Н.Р.</t>
+    <t>лек. Радиотелевизионная аппаратура Томилина В.Ю.</t>
+  </si>
+  <si>
+    <t>лек. Импульсная техника Вагапова Н.Р.</t>
   </si>
   <si>
     <t>ТМ(ц)3122</t>
@@ -367,10 +400,22 @@
     <t>211 лек. Реализация технологических процессов изготовления деталей Типеев А.Н.</t>
   </si>
   <si>
+    <t>305 пз. Разработка и внедрение управляющих программ изготовления деталей машин в машиностроительном производстве Зайнуллина Г.И.</t>
+  </si>
+  <si>
     <t>лек. Компьютерная графика Лаврова Л.Ф.</t>
   </si>
   <si>
+    <t>217 пз. Разработка и внедрение управляющих программ изготовления деталей машин в машиностроительном производстве Зайнуллина Г.И.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> лек. Реализация технологических процессов изготовления деталей Типеев А.Н.</t>
+  </si>
+  <si>
+    <t>лек. Разработка и внедрение управляющих программ изготовления деталей машин в машиностроительном производстве Зайнуллина Г.М.</t>
+  </si>
+  <si>
+    <t>лек. Процессы формообразования и инструменты Зайнуллина Г.М.</t>
   </si>
   <si>
     <t>ТМ3322</t>
@@ -407,6 +452,12 @@
   </si>
   <si>
     <t>лек. Электротехника и электроника Окин В.З.</t>
+  </si>
+  <si>
+    <t>115 пз. Безопасность жизнедеятельности Злобин В.С.</t>
+  </si>
+  <si>
+    <t>пз. Физическая культура Кияев С.А.</t>
   </si>
   <si>
     <t>лек. Основы экономики организации и правового обеспечения профессиональной деятельности Алексеева А.С.</t>
@@ -463,22 +514,31 @@
     <t>пз. Иностранный язык в профессиональной деятельности Батыргареева С.С.</t>
   </si>
   <si>
+    <t>321 лек. Внедрение и поддержка компьютерных систем Аслаева Ф.Р.</t>
+  </si>
+  <si>
     <t>8:00 - 9:30</t>
+  </si>
+  <si>
+    <t>лек. Технология разработки и защиты баз данных Старцева И.В.</t>
   </si>
   <si>
     <t>9:40 - 11:10</t>
   </si>
   <si>
+    <t>лек. Разработка программных модулей Тимашева Э.Р.</t>
+  </si>
+  <si>
     <t>11:30 - 13:00</t>
+  </si>
+  <si>
+    <t>лек. Внедрение и поддержка компьютерных систем Аслаева Ф.Р.</t>
   </si>
   <si>
     <t>13:10 - 14:40</t>
   </si>
   <si>
     <t>14:50 - 16:20</t>
-  </si>
-  <si>
-    <t>лек. Технология разработки и защиты баз данных Старцева И.В.</t>
   </si>
   <si>
     <t>16:30 - 18:00</t>
@@ -532,7 +592,19 @@
     <t>лек. Обработка отраслевой информации Карпова Н.Е.</t>
   </si>
   <si>
+    <t>315 лек. Математическое моделирование Кирилова Д.Ф.</t>
+  </si>
+  <si>
+    <t>304 лек. Внедрение информационных систем Будилов В.В.</t>
+  </si>
+  <si>
+    <t>лек. Устройство и функционирование информационной системы Будилов В.В.</t>
+  </si>
+  <si>
     <t>лек. Стандартизация, сертификация и техническое документоведение Старцева И.В.</t>
+  </si>
+  <si>
+    <t>лек. Математическое моделирование Кирилова Д.Ф.</t>
   </si>
   <si>
     <t>лек. Внедрение информационных систем Будилов В.В.</t>
@@ -769,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -879,6 +951,9 @@
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -902,6 +977,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3009,7 +3087,9 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12"/>
@@ -3069,7 +3149,9 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="9"/>
       <c r="H28" s="12"/>
@@ -3129,7 +3211,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -3148,9 +3230,11 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
@@ -3167,7 +3251,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
@@ -3195,7 +3279,7 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -3214,9 +3298,11 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
@@ -3233,7 +3319,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
@@ -3261,7 +3347,7 @@
         <v>5.0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -3280,7 +3366,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -3299,9 +3385,11 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="11"/>
       <c r="AL31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM31" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="AM31" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="AN31" s="11"/>
       <c r="AO31" s="11"/>
       <c r="AP31" s="11"/>
@@ -3327,7 +3415,7 @@
         <v>6.0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
@@ -3346,7 +3434,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -3365,9 +3453,11 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM32" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="AM32" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="AN32" s="11"/>
       <c r="AO32" s="11"/>
       <c r="AP32" s="11"/>
@@ -3386,7 +3476,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -3395,24 +3485,52 @@
         <v>1.0</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -3429,7 +3547,9 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
+      <c r="AM33" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="AN33" s="11"/>
       <c r="AO33" s="11"/>
       <c r="AP33" s="11"/>
@@ -3455,24 +3575,56 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -3489,7 +3641,9 @@
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
+      <c r="AM34" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
       <c r="AP34" s="11"/>
@@ -3509,34 +3663,66 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="V35" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -3553,9 +3739,11 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM35" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="AM35" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="11"/>
@@ -3575,34 +3763,66 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="V36" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -3619,9 +3839,11 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM36" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="AM36" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
@@ -3641,13 +3863,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -3666,7 +3888,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -3685,7 +3907,7 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
@@ -3707,13 +3929,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3732,7 +3954,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -3751,7 +3973,7 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
@@ -3816,7 +4038,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="E1" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -3830,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -4023,7 +4245,7 @@
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -4050,10 +4272,10 @@
         <v>6.0</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -4191,7 +4413,7 @@
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -4219,7 +4441,7 @@
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -4300,7 +4522,7 @@
         <v>3.0</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -4328,10 +4550,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -4359,7 +4581,7 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -4387,7 +4609,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -4417,7 +4639,7 @@
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -4445,7 +4667,7 @@
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -4472,10 +4694,10 @@
         <v>3.0</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -4502,7 +4724,7 @@
         <v>4.0</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -4584,7 +4806,7 @@
         <v>1.0</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -4612,9 +4834,11 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -4640,9 +4864,11 @@
         <v>3.0</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -4668,9 +4894,11 @@
         <v>4.0</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -4741,7 +4969,7 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>8</v>
@@ -4750,7 +4978,9 @@
         <v>1.0</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -4776,7 +5006,9 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="33"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -4796,15 +5028,17 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" s="32">
         <v>3.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -4824,15 +5058,17 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C37" s="32">
         <v>4.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -4852,13 +5088,13 @@
     <row r="38">
       <c r="A38" s="14"/>
       <c r="B38" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" s="32">
         <v>5.0</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -4880,13 +5116,13 @@
     <row r="39">
       <c r="A39" s="21"/>
       <c r="B39" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C39" s="32">
         <v>6.0</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="43"/>
@@ -4961,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4980,7 +5216,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -4999,7 +5235,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -5018,7 +5254,7 @@
       <c r="BA1" s="3"/>
       <c r="BB1" s="4"/>
       <c r="BC1" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
@@ -5260,7 +5496,7 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -5339,7 +5575,7 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -5435,7 +5671,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -5514,7 +5750,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -5550,7 +5786,7 @@
       <c r="BB6" s="17"/>
       <c r="BC6" s="15"/>
       <c r="BD6" s="23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="BE6" s="15"/>
       <c r="BF6" s="15"/>
@@ -5577,7 +5813,7 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -5596,7 +5832,7 @@
       <c r="S7" s="12"/>
       <c r="T7" s="16"/>
       <c r="U7" s="19" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -5615,10 +5851,10 @@
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AN7" s="16"/>
       <c r="AO7" s="16"/>
@@ -5636,10 +5872,10 @@
       <c r="BA7" s="16"/>
       <c r="BB7" s="20"/>
       <c r="BC7" s="19" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="BD7" s="23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="BE7" s="16"/>
       <c r="BF7" s="16"/>
@@ -5701,7 +5937,7 @@
       <c r="AK8" s="16"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AN8" s="16"/>
       <c r="AO8" s="16"/>
@@ -5782,7 +6018,7 @@
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -5861,7 +6097,7 @@
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
@@ -5905,7 +6141,7 @@
         <v>3.0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5924,10 +6160,10 @@
       <c r="S11" s="12"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -5945,7 +6181,7 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
@@ -5964,7 +6200,7 @@
       <c r="BA11" s="11"/>
       <c r="BB11" s="13"/>
       <c r="BC11" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="BD11" s="11"/>
       <c r="BE11" s="11"/>
@@ -5992,7 +6228,7 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -6011,10 +6247,10 @@
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -6032,7 +6268,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
@@ -6051,7 +6287,7 @@
       <c r="BA12" s="11"/>
       <c r="BB12" s="13"/>
       <c r="BC12" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="BD12" s="11"/>
       <c r="BE12" s="11"/>
@@ -6080,7 +6316,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -6159,7 +6395,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6239,7 +6475,7 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -6258,7 +6494,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="9"/>
       <c r="U15" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -6277,7 +6513,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -6296,7 +6532,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="22"/>
       <c r="BC15" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
@@ -6324,7 +6560,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -6343,7 +6579,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -6362,7 +6598,7 @@
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
@@ -6381,7 +6617,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="22"/>
       <c r="BC16" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="BD16" s="9"/>
       <c r="BE16" s="9"/>
@@ -6461,7 +6697,7 @@
       <c r="BB17" s="22"/>
       <c r="BC17" s="11"/>
       <c r="BD17" s="11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
@@ -6540,7 +6776,7 @@
       <c r="BB18" s="13"/>
       <c r="BC18" s="11"/>
       <c r="BD18" s="11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11"/>
@@ -6568,7 +6804,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
@@ -6587,7 +6823,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -6606,7 +6842,7 @@
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
@@ -6651,7 +6887,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -6670,7 +6906,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -6689,7 +6925,7 @@
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
@@ -6889,7 +7125,7 @@
         <v>3.0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
@@ -6908,7 +7144,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
@@ -6927,7 +7163,7 @@
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
@@ -6946,10 +7182,10 @@
       <c r="BA23" s="11"/>
       <c r="BB23" s="13"/>
       <c r="BC23" s="11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="BD23" s="11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="BE23" s="11"/>
       <c r="BF23" s="11"/>
@@ -6976,10 +7212,10 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
@@ -6997,10 +7233,10 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -7018,10 +7254,10 @@
       <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
       <c r="AL24" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
@@ -7039,10 +7275,10 @@
       <c r="BA24" s="11"/>
       <c r="BB24" s="13"/>
       <c r="BC24" s="11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="BD24" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
@@ -7070,7 +7306,7 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -7089,7 +7325,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -7108,7 +7344,7 @@
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
@@ -7127,7 +7363,7 @@
       <c r="BB25" s="13"/>
       <c r="BC25" s="11"/>
       <c r="BD25" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="BE25" s="11"/>
       <c r="BF25" s="11"/>
@@ -7155,7 +7391,7 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -7174,7 +7410,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -7193,7 +7429,7 @@
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
@@ -7239,7 +7475,7 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="12"/>
@@ -7258,7 +7494,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="9"/>
       <c r="U27" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -7277,7 +7513,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
@@ -7296,9 +7532,11 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="22"/>
       <c r="BC27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD27" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="BD27" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="BE27" s="9"/>
       <c r="BF27" s="9"/>
       <c r="BG27" s="9"/>
@@ -7324,7 +7562,7 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="12"/>
@@ -7343,7 +7581,7 @@
       <c r="S28" s="15"/>
       <c r="T28" s="9"/>
       <c r="U28" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -7362,7 +7600,7 @@
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
@@ -7381,9 +7619,11 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="22"/>
       <c r="BC28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD28" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="BD28" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="BE28" s="9"/>
       <c r="BF28" s="9"/>
       <c r="BG28" s="9"/>
@@ -7409,9 +7649,11 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
@@ -7428,7 +7670,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -7447,7 +7689,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
@@ -7466,7 +7708,7 @@
       <c r="BA29" s="15"/>
       <c r="BB29" s="17"/>
       <c r="BC29" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="BD29" s="15"/>
       <c r="BE29" s="15"/>
@@ -7494,9 +7736,11 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
@@ -7513,9 +7757,11 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="V30" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
@@ -7532,7 +7778,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
@@ -7551,7 +7797,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="17"/>
       <c r="BC30" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="BD30" s="15"/>
       <c r="BE30" s="15"/>
@@ -7596,7 +7842,9 @@
       <c r="S31" s="15"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
+      <c r="V31" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
@@ -7613,7 +7861,9 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="11"/>
       <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
+      <c r="AM31" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="AN31" s="11"/>
       <c r="AO31" s="11"/>
       <c r="AP31" s="11"/>
@@ -7690,7 +7940,9 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
+      <c r="AM32" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="AN32" s="11"/>
       <c r="AO32" s="11"/>
       <c r="AP32" s="11"/>
@@ -7726,7 +7978,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -7735,7 +7987,9 @@
         <v>1.0</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -7752,7 +8006,9 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -7769,7 +8025,9 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
+      <c r="AM33" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="AN33" s="11"/>
       <c r="AO33" s="11"/>
       <c r="AP33" s="11"/>
@@ -7786,9 +8044,11 @@
       <c r="BA33" s="11"/>
       <c r="BB33" s="13"/>
       <c r="BC33" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD33" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="BD33" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="BE33" s="11"/>
       <c r="BF33" s="11"/>
       <c r="BG33" s="11"/>
@@ -7814,7 +8074,9 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -7831,7 +8093,9 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -7848,7 +8112,9 @@
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
+      <c r="AM34" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
       <c r="AP34" s="11"/>
@@ -7865,9 +8131,11 @@
       <c r="BA34" s="11"/>
       <c r="BB34" s="13"/>
       <c r="BC34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD34" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="BD34" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="BE34" s="11"/>
       <c r="BF34" s="11"/>
       <c r="BG34" s="11"/>
@@ -7887,15 +8155,17 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -7912,9 +8182,11 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="V35" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -7931,9 +8203,11 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM35" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="AM35" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="11"/>
@@ -7950,9 +8224,11 @@
       <c r="BA35" s="11"/>
       <c r="BB35" s="13"/>
       <c r="BC35" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD35" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="BD35" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="BE35" s="11"/>
       <c r="BF35" s="11"/>
       <c r="BG35" s="11"/>
@@ -7972,13 +8248,13 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -7997,7 +8273,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -8016,7 +8292,7 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AM36" s="11"/>
       <c r="AN36" s="11"/>
@@ -8035,9 +8311,11 @@
       <c r="BA36" s="11"/>
       <c r="BB36" s="13"/>
       <c r="BC36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD36" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="BD36" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="BE36" s="11"/>
       <c r="BF36" s="11"/>
       <c r="BG36" s="11"/>
@@ -8057,13 +8335,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -8082,7 +8360,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -8101,7 +8379,7 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
@@ -8140,13 +8418,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -8165,7 +8443,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -8184,7 +8462,7 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
@@ -8276,7 +8554,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8295,7 +8573,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -8314,7 +8592,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -8599,7 +8877,7 @@
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
       <c r="AM4" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AN4" s="11"/>
       <c r="AO4" s="11"/>
@@ -8627,7 +8905,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -8646,7 +8924,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -8665,7 +8943,7 @@
       <c r="AK5" s="11"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
@@ -8693,7 +8971,7 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -8712,7 +8990,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -8731,7 +9009,7 @@
       <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
       <c r="AM6" s="11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AN6" s="15"/>
       <c r="AO6" s="15"/>
@@ -8758,10 +9036,10 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -8779,10 +9057,10 @@
       <c r="S7" s="12"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -8798,9 +9076,11 @@
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
+      <c r="AK7" s="45">
+        <v>2.0</v>
+      </c>
       <c r="AL7" s="23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AM7" s="16"/>
       <c r="AN7" s="16"/>
@@ -8924,7 +9204,7 @@
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
@@ -8986,7 +9266,7 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -9014,7 +9294,7 @@
         <v>3.0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -9033,7 +9313,7 @@
       <c r="S11" s="12"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -9053,7 +9333,7 @@
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -9080,7 +9360,7 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -9099,7 +9379,7 @@
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
@@ -9119,7 +9399,7 @@
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
@@ -9147,7 +9427,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -9166,7 +9446,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -9211,7 +9491,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -9230,7 +9510,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -9311,7 +9591,7 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
@@ -9338,7 +9618,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -9357,7 +9637,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -9377,7 +9657,7 @@
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
@@ -9404,10 +9684,10 @@
         <v>3.0</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -9425,10 +9705,10 @@
       <c r="S17" s="11"/>
       <c r="T17" s="9"/>
       <c r="U17" s="11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -9447,7 +9727,7 @@
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="11" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
@@ -9475,7 +9755,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -9494,7 +9774,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -9512,10 +9792,10 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="11" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -9543,7 +9823,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
@@ -9562,7 +9842,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -9580,7 +9860,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
       <c r="AL19" s="11" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -9609,7 +9889,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -9628,7 +9908,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -9675,7 +9955,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="9"/>
@@ -9737,7 +10017,7 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="11"/>
@@ -9756,7 +10036,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -9801,7 +10081,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="11"/>
@@ -9820,7 +10100,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -9838,7 +10118,7 @@
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
@@ -9884,7 +10164,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -9902,10 +10182,10 @@
       <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
       <c r="AL24" s="11" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AM24" s="11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
@@ -9932,7 +10212,7 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -9951,7 +10231,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="23" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
@@ -9971,7 +10251,7 @@
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
@@ -9998,7 +10278,7 @@
         <v>6.0</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -10017,7 +10297,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="9"/>
       <c r="U26" s="23" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -10037,7 +10317,7 @@
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
@@ -10100,7 +10380,9 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
+      <c r="AM27" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
@@ -10160,7 +10442,9 @@
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
+      <c r="AM28" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
@@ -10186,9 +10470,11 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
@@ -10205,7 +10491,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -10224,7 +10510,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="23" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
@@ -10252,9 +10538,11 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
@@ -10271,7 +10559,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -10290,7 +10578,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="23" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
@@ -10318,7 +10606,7 @@
         <v>5.0</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -10337,9 +10625,11 @@
       <c r="S31" s="15"/>
       <c r="T31" s="11"/>
       <c r="U31" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="V31" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
@@ -10356,7 +10646,7 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="11"/>
       <c r="AL31" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AM31" s="11"/>
       <c r="AN31" s="11"/>
@@ -10384,7 +10674,7 @@
         <v>6.0</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
@@ -10403,9 +10693,11 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="V32" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
@@ -10422,7 +10714,7 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
@@ -10443,7 +10735,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -10452,7 +10744,9 @@
         <v>1.0</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -10469,7 +10763,9 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -10512,7 +10808,9 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -10529,7 +10827,9 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -10566,15 +10866,17 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -10591,9 +10893,11 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="V35" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -10610,9 +10914,11 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM35" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="AM35" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="11"/>
@@ -10632,15 +10938,17 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -10657,9 +10965,11 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="V36" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -10676,9 +10986,11 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM36" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="AM36" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
@@ -10698,13 +11010,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -10723,7 +11035,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -10742,9 +11054,11 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM37" s="16"/>
+        <v>113</v>
+      </c>
+      <c r="AM37" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="AN37" s="16"/>
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
@@ -10764,13 +11078,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -10789,7 +11103,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -10808,9 +11122,11 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM38" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="AM38" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
@@ -10880,7 +11196,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -10899,7 +11215,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -11210,10 +11526,10 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -11231,10 +11547,10 @@
       <c r="S7" s="12"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -11262,7 +11578,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -11281,7 +11597,7 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -11439,10 +11755,10 @@
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -11460,10 +11776,10 @@
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -11490,10 +11806,10 @@
         <v>5.0</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -11511,10 +11827,10 @@
       <c r="S13" s="12"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -11586,7 +11902,7 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -11605,7 +11921,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="9"/>
       <c r="U15" s="11" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -11633,7 +11949,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -11652,7 +11968,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -11681,7 +11997,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -11700,7 +12016,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="11" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -11728,7 +12044,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -11747,7 +12063,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -11775,7 +12091,7 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
@@ -11794,7 +12110,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -11822,7 +12138,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -11841,7 +12157,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -11914,7 +12230,7 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="11"/>
@@ -11959,7 +12275,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="11"/>
@@ -11978,7 +12294,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -12005,10 +12321,10 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
@@ -12026,10 +12342,10 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -12056,7 +12372,7 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -12075,10 +12391,10 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -12236,7 +12552,7 @@
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -12255,7 +12571,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -12283,9 +12599,11 @@
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>127</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
@@ -12302,9 +12620,11 @@
       <c r="S30" s="11"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="V30" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
@@ -12330,9 +12650,11 @@
         <v>5.0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
@@ -12349,9 +12671,11 @@
       <c r="S31" s="15"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="V31" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
@@ -12377,7 +12701,7 @@
         <v>6.0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
@@ -12396,7 +12720,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -12417,7 +12741,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>8</v>
@@ -12426,7 +12750,9 @@
         <v>1.0</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -12443,7 +12769,9 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -12471,7 +12799,9 @@
       <c r="D34" s="11">
         <v>2.0</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -12488,7 +12818,9 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -12508,15 +12840,17 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="10">
         <v>3.0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -12533,9 +12867,11 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="V35" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -12555,15 +12891,17 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C36" s="10">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -12580,9 +12918,11 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="V36" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="V36" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -12602,13 +12942,13 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" s="10">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9"/>
@@ -12627,7 +12967,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -12649,13 +12989,13 @@
     <row r="38">
       <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -12674,7 +13014,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -12736,17 +13076,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -12765,7 +13105,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -12785,7 +13125,7 @@
       <c r="AK1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
@@ -12894,13 +13234,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="49">
         <v>1.0</v>
       </c>
       <c r="D3" s="11"/>
@@ -12940,10 +13280,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="49">
         <v>2.0</v>
       </c>
       <c r="D4" s="11"/>
@@ -12983,15 +13323,15 @@
     </row>
     <row r="5">
       <c r="A5" s="14"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="49">
         <v>3.0</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -13010,7 +13350,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -13030,15 +13370,15 @@
     </row>
     <row r="6">
       <c r="A6" s="14"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="49">
         <v>4.0</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="11" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -13057,7 +13397,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="11" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -13077,14 +13417,14 @@
     </row>
     <row r="7">
       <c r="A7" s="14"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="49">
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -13103,7 +13443,7 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -13124,10 +13464,10 @@
     </row>
     <row r="8">
       <c r="A8" s="21"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="49">
         <v>6.0</v>
       </c>
       <c r="D8" s="16"/>
@@ -13166,13 +13506,13 @@
       <c r="AK8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="49">
         <v>1.0</v>
       </c>
       <c r="D9" s="11"/>
@@ -13212,10 +13552,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="49">
         <v>2.0</v>
       </c>
       <c r="D10" s="11"/>
@@ -13255,14 +13595,14 @@
     </row>
     <row r="11">
       <c r="A11" s="14"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="49">
         <v>3.0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -13281,7 +13621,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -13302,17 +13642,17 @@
     </row>
     <row r="12">
       <c r="A12" s="14"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="49">
         <v>4.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -13330,10 +13670,10 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -13353,15 +13693,15 @@
     </row>
     <row r="13">
       <c r="A13" s="14"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="49">
         <v>5.0</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -13380,7 +13720,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -13400,15 +13740,15 @@
     </row>
     <row r="14">
       <c r="A14" s="21"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="49">
         <v>6.0</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="23" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -13427,7 +13767,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="23" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -13446,13 +13786,13 @@
       <c r="AK14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="49">
         <v>1.0</v>
       </c>
       <c r="D15" s="9"/>
@@ -13492,10 +13832,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="49">
         <v>2.0</v>
       </c>
       <c r="D16" s="9"/>
@@ -13535,17 +13875,17 @@
     </row>
     <row r="17">
       <c r="A17" s="14"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="49">
         <v>3.0</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -13563,10 +13903,10 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="11" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -13586,17 +13926,17 @@
     </row>
     <row r="18">
       <c r="A18" s="14"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="49">
         <v>4.0</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -13614,10 +13954,10 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -13637,10 +13977,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="49">
         <v>5.0</v>
       </c>
       <c r="D19" s="11"/>
@@ -13680,10 +14020,10 @@
     </row>
     <row r="20">
       <c r="A20" s="21"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="49">
         <v>6.0</v>
       </c>
       <c r="D20" s="11"/>
@@ -13722,13 +14062,13 @@
       <c r="AK20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="49">
         <v>1.0</v>
       </c>
       <c r="D21" s="9"/>
@@ -13768,10 +14108,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="49">
         <v>2.0</v>
       </c>
       <c r="D22" s="11"/>
@@ -13811,15 +14151,15 @@
     </row>
     <row r="23">
       <c r="A23" s="14"/>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="49">
         <v>3.0</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -13838,7 +14178,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -13858,17 +14198,17 @@
     </row>
     <row r="24">
       <c r="A24" s="14"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="49">
         <v>4.0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -13886,10 +14226,10 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -13909,10 +14249,10 @@
     </row>
     <row r="25">
       <c r="A25" s="14"/>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="49">
         <v>5.0</v>
       </c>
       <c r="D25" s="11"/>
@@ -13952,10 +14292,10 @@
     </row>
     <row r="26">
       <c r="A26" s="21"/>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="49">
         <v>6.0</v>
       </c>
       <c r="D26" s="9"/>
@@ -13994,13 +14334,13 @@
       <c r="AK26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="49">
         <v>1.0</v>
       </c>
       <c r="D27" s="9"/>
@@ -14040,10 +14380,10 @@
     </row>
     <row r="28">
       <c r="A28" s="14"/>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="49">
         <v>2.0</v>
       </c>
       <c r="D28" s="9"/>
@@ -14083,14 +14423,14 @@
     </row>
     <row r="29">
       <c r="A29" s="14"/>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="49">
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -14109,7 +14449,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -14130,16 +14470,18 @@
     </row>
     <row r="30">
       <c r="A30" s="14"/>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="49">
         <v>4.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -14156,9 +14498,11 @@
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="V30" s="15"/>
+        <v>147</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
@@ -14177,53 +14521,57 @@
     </row>
     <row r="31">
       <c r="A31" s="14"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="50">
         <v>5.0</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
     </row>
     <row r="32">
       <c r="A32" s="21"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="49">
         <v>6.0</v>
       </c>
       <c r="D32" s="11"/>
@@ -14262,17 +14610,19 @@
       <c r="AK32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="48">
+      <c r="A33" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="49">
         <v>1.0</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -14289,7 +14639,9 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -14308,14 +14660,16 @@
     </row>
     <row r="34">
       <c r="A34" s="14"/>
-      <c r="B34" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="48">
+      <c r="B34" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="49">
         <v>2.0</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -14332,7 +14686,9 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -14351,14 +14707,16 @@
     </row>
     <row r="35">
       <c r="A35" s="14"/>
-      <c r="B35" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="48">
+      <c r="B35" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="49">
         <v>3.0</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -14375,7 +14733,9 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
+      <c r="V35" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -14394,10 +14754,10 @@
     </row>
     <row r="36">
       <c r="A36" s="14"/>
-      <c r="B36" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="48">
+      <c r="B36" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="49">
         <v>4.0</v>
       </c>
       <c r="D36" s="11"/>
@@ -14437,14 +14797,14 @@
     </row>
     <row r="37">
       <c r="A37" s="14"/>
-      <c r="B37" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="48">
+      <c r="B37" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="49">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -14463,7 +14823,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -14484,14 +14844,14 @@
     </row>
     <row r="38">
       <c r="A38" s="21"/>
-      <c r="B38" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="48">
+      <c r="B38" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="49">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -14510,7 +14870,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -14579,17 +14939,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -14608,7 +14968,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -14627,7 +14987,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -14646,7 +15006,7 @@
       <c r="BA1" s="3"/>
       <c r="BB1" s="4"/>
       <c r="BC1" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
@@ -14666,7 +15026,7 @@
       <c r="BS1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
@@ -14877,13 +15237,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="49">
         <v>1.0</v>
       </c>
       <c r="D3" s="11"/>
@@ -14957,10 +15317,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="49">
         <v>2.0</v>
       </c>
       <c r="D4" s="11"/>
@@ -15034,10 +15394,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="49">
         <v>3.0</v>
       </c>
       <c r="D5" s="11"/>
@@ -15111,15 +15471,15 @@
     </row>
     <row r="6">
       <c r="A6" s="14"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="49">
         <v>4.0</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="23" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -15138,7 +15498,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="23" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -15192,17 +15552,17 @@
     </row>
     <row r="7">
       <c r="A7" s="14"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="49">
         <v>5.0</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -15220,10 +15580,10 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="23" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -15241,10 +15601,10 @@
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="23" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AM7" s="23" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AN7" s="16"/>
       <c r="AO7" s="16"/>
@@ -15262,10 +15622,10 @@
       <c r="BA7" s="16"/>
       <c r="BB7" s="16"/>
       <c r="BC7" s="23" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="BD7" s="23" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="BE7" s="16"/>
       <c r="BF7" s="16"/>
@@ -15285,10 +15645,10 @@
     </row>
     <row r="8">
       <c r="A8" s="21"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="49">
         <v>6.0</v>
       </c>
       <c r="D8" s="16"/>
@@ -15327,7 +15687,7 @@
       <c r="AK8" s="16"/>
       <c r="AL8" s="16"/>
       <c r="AM8" s="11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AN8" s="16"/>
       <c r="AO8" s="16"/>
@@ -15346,7 +15706,7 @@
       <c r="BB8" s="16"/>
       <c r="BC8" s="16"/>
       <c r="BD8" s="11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="BE8" s="16"/>
       <c r="BF8" s="16"/>
@@ -15365,13 +15725,13 @@
       <c r="BS8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="49">
         <v>1.0</v>
       </c>
       <c r="D9" s="9"/>
@@ -15445,10 +15805,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="49">
         <v>2.0</v>
       </c>
       <c r="D10" s="11"/>
@@ -15469,7 +15829,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -15487,10 +15847,10 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="AM10" s="11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
@@ -15508,7 +15868,7 @@
       <c r="BA10" s="11"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="BD10" s="11"/>
       <c r="BE10" s="11"/>
@@ -15529,15 +15889,15 @@
     </row>
     <row r="11">
       <c r="A11" s="14"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="49">
         <v>3.0</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -15572,10 +15932,10 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -15593,7 +15953,7 @@
       <c r="BA11" s="11"/>
       <c r="BB11" s="11"/>
       <c r="BC11" s="11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="BD11" s="11"/>
       <c r="BE11" s="11"/>
@@ -15614,15 +15974,15 @@
     </row>
     <row r="12">
       <c r="A12" s="14"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="49">
         <v>4.0</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15674,7 +16034,7 @@
       <c r="BB12" s="11"/>
       <c r="BC12" s="11"/>
       <c r="BD12" s="11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="BE12" s="11"/>
       <c r="BF12" s="11"/>
@@ -15694,14 +16054,14 @@
     </row>
     <row r="13">
       <c r="A13" s="14"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="49">
         <v>5.0</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -15720,7 +16080,7 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -15757,7 +16117,7 @@
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
       <c r="BD13" s="11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="BE13" s="11"/>
       <c r="BF13" s="11"/>
@@ -15777,14 +16137,14 @@
     </row>
     <row r="14">
       <c r="A14" s="21"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="49">
         <v>6.0</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -15803,7 +16163,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -15857,17 +16217,17 @@
       <c r="BS14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="49">
         <v>1.0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -15939,10 +16299,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="49">
         <v>2.0</v>
       </c>
       <c r="D16" s="9"/>
@@ -15963,10 +16323,10 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -16020,10 +16380,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="49">
         <v>3.0</v>
       </c>
       <c r="D17" s="9"/>
@@ -16045,7 +16405,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -16099,15 +16459,15 @@
     </row>
     <row r="18">
       <c r="A18" s="14"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="49">
         <v>4.0</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -16143,7 +16503,7 @@
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -16162,7 +16522,7 @@
       <c r="BB18" s="11"/>
       <c r="BC18" s="11"/>
       <c r="BD18" s="11" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11"/>
@@ -16182,15 +16542,15 @@
     </row>
     <row r="19">
       <c r="A19" s="14"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="49">
         <v>5.0</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -16226,7 +16586,7 @@
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
@@ -16244,10 +16604,10 @@
       <c r="BA19" s="11"/>
       <c r="BB19" s="11"/>
       <c r="BC19" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="BD19" s="11" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BE19" s="11"/>
       <c r="BF19" s="11"/>
@@ -16267,10 +16627,10 @@
     </row>
     <row r="20">
       <c r="A20" s="21"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="49">
         <v>6.0</v>
       </c>
       <c r="D20" s="11"/>
@@ -16308,10 +16668,10 @@
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
@@ -16330,7 +16690,7 @@
       <c r="BB20" s="11"/>
       <c r="BC20" s="11"/>
       <c r="BD20" s="11" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BE20" s="11"/>
       <c r="BF20" s="11"/>
@@ -16349,13 +16709,13 @@
       <c r="BS20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="49">
         <v>1.0</v>
       </c>
       <c r="D21" s="9"/>
@@ -16429,10 +16789,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="49">
         <v>2.0</v>
       </c>
       <c r="D22" s="11"/>
@@ -16471,7 +16831,7 @@
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
       <c r="AM22" s="11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
@@ -16508,10 +16868,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14"/>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="49">
         <v>3.0</v>
       </c>
       <c r="E23" s="11"/>
@@ -16548,7 +16908,7 @@
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
       <c r="AM23" s="11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
@@ -16585,15 +16945,15 @@
     </row>
     <row r="24">
       <c r="A24" s="14"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="49">
         <v>4.0</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -16612,7 +16972,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -16647,8 +17007,8 @@
       <c r="BA24" s="11"/>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
-      <c r="BD24" s="52" t="s">
-        <v>147</v>
+      <c r="BD24" s="53" t="s">
+        <v>167</v>
       </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
@@ -16668,17 +17028,17 @@
     </row>
     <row r="25">
       <c r="A25" s="14"/>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="49">
         <v>5.0</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16696,10 +17056,10 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -16734,8 +17094,8 @@
       <c r="BA25" s="11"/>
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
-      <c r="BD25" s="52" t="s">
-        <v>148</v>
+      <c r="BD25" s="53" t="s">
+        <v>168</v>
       </c>
       <c r="BE25" s="11"/>
       <c r="BF25" s="11"/>
@@ -16755,15 +17115,15 @@
     </row>
     <row r="26">
       <c r="A26" s="21"/>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="49">
         <v>6.0</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="11" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -16782,7 +17142,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="11" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -16800,7 +17160,7 @@
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="11" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
@@ -16819,7 +17179,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
       <c r="BC26" s="11" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="BD26" s="9"/>
       <c r="BE26" s="9"/>
@@ -16839,17 +17199,17 @@
       <c r="BS26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="49">
         <v>1.0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -16868,7 +17228,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -16923,14 +17283,14 @@
     </row>
     <row r="28">
       <c r="A28" s="14"/>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="49">
         <v>2.0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -16949,7 +17309,7 @@
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -17004,14 +17364,14 @@
     </row>
     <row r="29">
       <c r="A29" s="14"/>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="49">
         <v>3.0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -17030,7 +17390,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -17085,14 +17445,16 @@
     </row>
     <row r="30">
       <c r="A30" s="14"/>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="49">
         <v>4.0</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -17109,7 +17471,9 @@
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="V30" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
@@ -17126,9 +17490,11 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM30" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="AM30" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="AN30" s="15"/>
       <c r="AO30" s="15"/>
       <c r="AP30" s="15"/>
@@ -17145,9 +17511,11 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
       <c r="BC30" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD30" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="BD30" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="BE30" s="15"/>
       <c r="BF30" s="15"/>
       <c r="BG30" s="15"/>
@@ -17166,69 +17534,77 @@
     </row>
     <row r="31">
       <c r="A31" s="14"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="50">
         <v>5.0</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
       <c r="AL31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="50"/>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="50"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
+        <v>173</v>
+      </c>
+      <c r="AM31" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="51"/>
+      <c r="AZ31" s="51"/>
+      <c r="BA31" s="51"/>
+      <c r="BB31" s="51"/>
       <c r="BC31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD31" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="BD31" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="BE31" s="11"/>
       <c r="BF31" s="11"/>
       <c r="BG31" s="11"/>
@@ -17247,10 +17623,10 @@
     </row>
     <row r="32">
       <c r="A32" s="21"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="49">
         <v>6.0</v>
       </c>
       <c r="D32" s="11"/>
@@ -17288,7 +17664,7 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
@@ -17307,7 +17683,7 @@
       <c r="BA32" s="11"/>
       <c r="BB32" s="11"/>
       <c r="BC32" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="BD32" s="11"/>
       <c r="BE32" s="11"/>
@@ -17327,17 +17703,19 @@
       <c r="BS32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="48">
+      <c r="A33" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="49">
         <v>1.0</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -17354,7 +17732,9 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -17407,14 +17787,16 @@
     </row>
     <row r="34">
       <c r="A34" s="14"/>
-      <c r="B34" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="48">
+      <c r="B34" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="49">
         <v>2.0</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -17431,7 +17813,9 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="54" t="s">
+        <v>173</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -17448,7 +17832,9 @@
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
+      <c r="AM34" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
       <c r="AP34" s="11"/>
@@ -17465,7 +17851,9 @@
       <c r="BA34" s="11"/>
       <c r="BB34" s="11"/>
       <c r="BC34" s="11"/>
-      <c r="BD34" s="11"/>
+      <c r="BD34" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="BE34" s="11"/>
       <c r="BF34" s="11"/>
       <c r="BG34" s="11"/>
@@ -17484,14 +17872,16 @@
     </row>
     <row r="35">
       <c r="A35" s="14"/>
-      <c r="B35" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="48">
+      <c r="B35" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="49">
         <v>3.0</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -17508,7 +17898,9 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
+      <c r="V35" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -17525,9 +17917,11 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM35" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="AM35" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="11"/>
@@ -17544,9 +17938,11 @@
       <c r="BA35" s="11"/>
       <c r="BB35" s="11"/>
       <c r="BC35" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD35" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="BD35" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="BE35" s="11"/>
       <c r="BF35" s="11"/>
       <c r="BG35" s="11"/>
@@ -17565,16 +17961,18 @@
     </row>
     <row r="36">
       <c r="A36" s="14"/>
-      <c r="B36" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="48">
+      <c r="B36" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="49">
         <v>4.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>177</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -17591,9 +17989,11 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="V36" s="11"/>
+        <v>177</v>
+      </c>
+      <c r="V36" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -17610,9 +18010,11 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM36" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="AM36" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
@@ -17629,9 +18031,11 @@
       <c r="BA36" s="11"/>
       <c r="BB36" s="11"/>
       <c r="BC36" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD36" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="BD36" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="BE36" s="11"/>
       <c r="BF36" s="11"/>
       <c r="BG36" s="11"/>
@@ -17650,14 +18054,14 @@
     </row>
     <row r="37">
       <c r="A37" s="14"/>
-      <c r="B37" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="48">
+      <c r="B37" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="49">
         <v>5.0</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -17676,7 +18080,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -17695,9 +18099,11 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM37" s="16"/>
+        <v>179</v>
+      </c>
+      <c r="AM37" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="AN37" s="16"/>
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
@@ -17714,9 +18120,11 @@
       <c r="BA37" s="16"/>
       <c r="BB37" s="16"/>
       <c r="BC37" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="BD37" s="16"/>
+        <v>179</v>
+      </c>
+      <c r="BD37" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="BE37" s="16"/>
       <c r="BF37" s="16"/>
       <c r="BG37" s="16"/>
@@ -17735,14 +18143,14 @@
     </row>
     <row r="38">
       <c r="A38" s="21"/>
-      <c r="B38" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="48">
+      <c r="B38" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="49">
         <v>6.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -17761,7 +18169,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -17780,7 +18188,7 @@
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="11" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
@@ -17799,7 +18207,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
       <c r="BC38" s="11" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="BD38" s="9"/>
       <c r="BE38" s="9"/>
